--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H2">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I2">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J2">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N2">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O2">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P2">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q2">
-        <v>231.2289427150311</v>
+        <v>253.2650048056069</v>
       </c>
       <c r="R2">
-        <v>2081.06048443528</v>
+        <v>2279.385043250462</v>
       </c>
       <c r="S2">
-        <v>0.4877039264405649</v>
+        <v>0.3741128643297885</v>
       </c>
       <c r="T2">
-        <v>0.5058856167998844</v>
+        <v>0.4019109503823818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H3">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I3">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J3">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.727564</v>
       </c>
       <c r="O3">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P3">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q3">
-        <v>69.10325704700666</v>
+        <v>82.50043915099468</v>
       </c>
       <c r="R3">
-        <v>621.92931342306</v>
+        <v>742.5039523589521</v>
       </c>
       <c r="S3">
-        <v>0.1457513466780471</v>
+        <v>0.1218663258389528</v>
       </c>
       <c r="T3">
-        <v>0.1511849831756959</v>
+        <v>0.1309214825458826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H4">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I4">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J4">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N4">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O4">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P4">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q4">
-        <v>7.311894899267222</v>
+        <v>9.00845008063</v>
       </c>
       <c r="R4">
-        <v>65.807054093405</v>
+        <v>81.07605072567</v>
       </c>
       <c r="S4">
-        <v>0.01542211718923174</v>
+        <v>0.01330691962524857</v>
       </c>
       <c r="T4">
-        <v>0.01599705650019077</v>
+        <v>0.01429567711558582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H5">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I5">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J5">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N5">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O5">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P5">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q5">
-        <v>36.40695909298584</v>
+        <v>90.67793091211401</v>
       </c>
       <c r="R5">
-        <v>218.441754557915</v>
+        <v>544.067585472684</v>
       </c>
       <c r="S5">
-        <v>0.07678890320098324</v>
+        <v>0.1339457873031758</v>
       </c>
       <c r="T5">
-        <v>0.05310107157667118</v>
+        <v>0.0959323309578928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H6">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I6">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J6">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N6">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O6">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P6">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q6">
-        <v>5.161088016353334</v>
+        <v>5.102203109705335</v>
       </c>
       <c r="R6">
-        <v>46.44979214718001</v>
+        <v>45.91982798734801</v>
       </c>
       <c r="S6">
-        <v>0.01088567400225043</v>
+        <v>0.007536768931930853</v>
       </c>
       <c r="T6">
-        <v>0.01129149389282605</v>
+        <v>0.008096781086828687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.199877</v>
       </c>
       <c r="I7">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J7">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N7">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O7">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P7">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q7">
-        <v>22.67263773667377</v>
+        <v>20.80066872809922</v>
       </c>
       <c r="R7">
-        <v>204.053739630064</v>
+        <v>187.206018552893</v>
       </c>
       <c r="S7">
-        <v>0.04782071966037463</v>
+        <v>0.03072591005542657</v>
       </c>
       <c r="T7">
-        <v>0.04960348471615424</v>
+        <v>0.03300896838675427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.199877</v>
       </c>
       <c r="I8">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J8">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.727564</v>
       </c>
       <c r="O8">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P8">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q8">
         <v>6.775765589958667</v>
@@ -948,10 +948,10 @@
         <v>60.98189030962801</v>
       </c>
       <c r="S8">
-        <v>0.01429132289436749</v>
+        <v>0.01000888802158954</v>
       </c>
       <c r="T8">
-        <v>0.01482410599001909</v>
+        <v>0.01075258853831289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.199877</v>
       </c>
       <c r="I9">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J9">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N9">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O9">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P9">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q9">
-        <v>0.7169515298265555</v>
+        <v>0.7398644989449999</v>
       </c>
       <c r="R9">
-        <v>6.452563768439</v>
+        <v>6.658780490504999</v>
       </c>
       <c r="S9">
-        <v>0.00151218126960389</v>
+        <v>0.001092898038276901</v>
       </c>
       <c r="T9">
-        <v>0.001568555660131688</v>
+        <v>0.001174104745159749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.199877</v>
       </c>
       <c r="I10">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J10">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N10">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P10">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q10">
-        <v>3.569803091762834</v>
+        <v>7.447383436570999</v>
       </c>
       <c r="R10">
-        <v>21.418818550577</v>
+        <v>44.684300619426</v>
       </c>
       <c r="S10">
-        <v>0.007529364464629488</v>
+        <v>0.01100097485381493</v>
       </c>
       <c r="T10">
-        <v>0.005206707020110367</v>
+        <v>0.007878927600365139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5.199877</v>
       </c>
       <c r="I11">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J11">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N11">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O11">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P11">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q11">
-        <v>0.5060589628093334</v>
+        <v>0.4190442210913334</v>
       </c>
       <c r="R11">
-        <v>4.554530665284</v>
+        <v>3.771397989822</v>
       </c>
       <c r="S11">
-        <v>0.001067370460957905</v>
+        <v>0.000618995245528107</v>
       </c>
       <c r="T11">
-        <v>0.001107162224295668</v>
+        <v>0.0006649890745084659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.321288666666666</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H12">
-        <v>9.963865999999999</v>
+        <v>17.778679</v>
       </c>
       <c r="I12">
-        <v>0.1383878802086788</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J12">
-        <v>0.1385585285965482</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N12">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O12">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P12">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q12">
-        <v>43.44470537952355</v>
+        <v>71.11868459623456</v>
       </c>
       <c r="R12">
-        <v>391.0023484157119</v>
+        <v>640.068161366111</v>
       </c>
       <c r="S12">
-        <v>0.09163279106785376</v>
+        <v>0.105053656434239</v>
       </c>
       <c r="T12">
-        <v>0.09504887804938633</v>
+        <v>0.1128595643837829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.321288666666666</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H13">
-        <v>9.963865999999999</v>
+        <v>17.778679</v>
       </c>
       <c r="I13">
-        <v>0.1383878802086788</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J13">
-        <v>0.1385585285965482</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.727564</v>
       </c>
       <c r="O13">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P13">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q13">
-        <v>12.98354180026933</v>
+        <v>23.16673286755067</v>
       </c>
       <c r="R13">
-        <v>116.851876202424</v>
+        <v>208.500595807956</v>
       </c>
       <c r="S13">
-        <v>0.02738465280663559</v>
+        <v>0.03422096470412386</v>
       </c>
       <c r="T13">
-        <v>0.02840555760344861</v>
+        <v>0.03676371961139543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.321288666666666</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H14">
-        <v>9.963865999999999</v>
+        <v>17.778679</v>
       </c>
       <c r="I14">
-        <v>0.1383878802086788</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J14">
-        <v>0.1385585285965482</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N14">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O14">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P14">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q14">
-        <v>1.373803451829111</v>
+        <v>2.529639341515</v>
       </c>
       <c r="R14">
-        <v>12.364231066462</v>
+        <v>22.766754073635</v>
       </c>
       <c r="S14">
-        <v>0.002897601527505946</v>
+        <v>0.003736681348857815</v>
       </c>
       <c r="T14">
-        <v>0.003005624635177655</v>
+        <v>0.004014331757572723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.321288666666666</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H15">
-        <v>9.963865999999999</v>
+        <v>17.778679</v>
       </c>
       <c r="I15">
-        <v>0.1383878802086788</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J15">
-        <v>0.1385585285965482</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N15">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O15">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P15">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q15">
-        <v>6.840361734077667</v>
+        <v>25.463032973417</v>
       </c>
       <c r="R15">
-        <v>41.04217040446601</v>
+        <v>152.778197840502</v>
       </c>
       <c r="S15">
-        <v>0.01442756791953539</v>
+        <v>0.03761296673229916</v>
       </c>
       <c r="T15">
-        <v>0.009976953502869203</v>
+        <v>0.02693850732837182</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.321288666666666</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H16">
-        <v>9.963865999999999</v>
+        <v>17.778679</v>
       </c>
       <c r="I16">
-        <v>0.1383878802086788</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J16">
-        <v>0.1385585285965482</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N16">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O16">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P16">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q16">
-        <v>0.9696967242746668</v>
+        <v>1.432736330799333</v>
       </c>
       <c r="R16">
-        <v>8.727270518472</v>
+        <v>12.894626977194</v>
       </c>
       <c r="S16">
-        <v>0.002045266887148061</v>
+        <v>0.002116380401453804</v>
       </c>
       <c r="T16">
-        <v>0.002121514805666361</v>
+        <v>0.002273635952195235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.0886745</v>
+        <v>0.058054</v>
       </c>
       <c r="H17">
-        <v>0.177349</v>
+        <v>0.116108</v>
       </c>
       <c r="I17">
-        <v>0.00369479359223553</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J17">
-        <v>0.002466233135619168</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N17">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O17">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P17">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q17">
-        <v>1.159922522194667</v>
+        <v>0.6966868768286667</v>
       </c>
       <c r="R17">
-        <v>6.959535133167999</v>
+        <v>4.180121260972</v>
       </c>
       <c r="S17">
-        <v>0.002446487718184809</v>
+        <v>0.001029117793954204</v>
       </c>
       <c r="T17">
-        <v>0.001691795481109503</v>
+        <v>0.0007370569152788161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.0886745</v>
+        <v>0.058054</v>
       </c>
       <c r="H18">
-        <v>0.177349</v>
+        <v>0.116108</v>
       </c>
       <c r="I18">
-        <v>0.00369479359223553</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J18">
-        <v>0.002466233135619168</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.727564</v>
       </c>
       <c r="O18">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P18">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q18">
-        <v>0.346645291306</v>
+        <v>0.226944000152</v>
       </c>
       <c r="R18">
-        <v>2.079871747836</v>
+        <v>1.361664000912</v>
       </c>
       <c r="S18">
-        <v>0.0007311380126856406</v>
+        <v>0.000335232536388087</v>
       </c>
       <c r="T18">
-        <v>0.0005055966464637328</v>
+        <v>0.0002400944387735388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.0886745</v>
+        <v>0.058054</v>
       </c>
       <c r="H19">
-        <v>0.177349</v>
+        <v>0.116108</v>
       </c>
       <c r="I19">
-        <v>0.00369479359223553</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J19">
-        <v>0.002466233135619168</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N19">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O19">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P19">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q19">
-        <v>0.03667893592383334</v>
+        <v>0.02478064017</v>
       </c>
       <c r="R19">
-        <v>0.220073615543</v>
+        <v>0.14868384102</v>
       </c>
       <c r="S19">
-        <v>7.736255184006672E-05</v>
+        <v>3.660496356786547E-05</v>
       </c>
       <c r="T19">
-        <v>5.349776115256085E-05</v>
+        <v>2.621657276720355E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.0886745</v>
+        <v>0.058054</v>
       </c>
       <c r="H20">
-        <v>0.177349</v>
+        <v>0.116108</v>
       </c>
       <c r="I20">
-        <v>0.00369479359223553</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J20">
-        <v>0.002466233135619168</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N20">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O20">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P20">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q20">
-        <v>0.18262961081225</v>
+        <v>0.249438822126</v>
       </c>
       <c r="R20">
-        <v>0.7305184432490002</v>
+        <v>0.997755288504</v>
       </c>
       <c r="S20">
-        <v>0.0003851990898354639</v>
+        <v>0.0003684609813828512</v>
       </c>
       <c r="T20">
-        <v>0.0001775819472863595</v>
+        <v>0.00017592849327459</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.0886745</v>
+        <v>0.058054</v>
       </c>
       <c r="H21">
-        <v>0.177349</v>
+        <v>0.116108</v>
       </c>
       <c r="I21">
-        <v>0.00369479359223553</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J21">
-        <v>0.002466233135619168</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N21">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O21">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P21">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q21">
-        <v>0.02588976171800001</v>
+        <v>0.014035251148</v>
       </c>
       <c r="R21">
-        <v>0.155338570308</v>
+        <v>0.08421150688800001</v>
       </c>
       <c r="S21">
-        <v>5.460621968954944E-05</v>
+        <v>2.073230769721403E-05</v>
       </c>
       <c r="T21">
-        <v>3.776129960701232E-05</v>
+        <v>1.484853419860296E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.179458333333333</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H22">
-        <v>3.538375</v>
+        <v>10.823695</v>
       </c>
       <c r="I22">
-        <v>0.04914439993807462</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J22">
-        <v>0.04920500071185332</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N22">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O22">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P22">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q22">
-        <v>15.42811388644444</v>
+        <v>43.29719608925055</v>
       </c>
       <c r="R22">
-        <v>138.853024978</v>
+        <v>389.674764803255</v>
       </c>
       <c r="S22">
-        <v>0.03254070027584846</v>
+        <v>0.06395687417940277</v>
       </c>
       <c r="T22">
-        <v>0.03375382345246287</v>
+        <v>0.06870912640488809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.179458333333333</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H23">
-        <v>3.538375</v>
+        <v>10.823695</v>
       </c>
       <c r="I23">
-        <v>0.04914439993807462</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J23">
-        <v>0.04920500071185332</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.727564</v>
       </c>
       <c r="O23">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P23">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q23">
-        <v>4.610724363166667</v>
+        <v>14.10395286988667</v>
       </c>
       <c r="R23">
-        <v>41.4965192685</v>
+        <v>126.93557582898</v>
       </c>
       <c r="S23">
-        <v>0.009724856885337399</v>
+        <v>0.02083379111368184</v>
       </c>
       <c r="T23">
-        <v>0.01008740130438351</v>
+        <v>0.02238182533917524</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.179458333333333</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H24">
-        <v>3.538375</v>
+        <v>10.823695</v>
       </c>
       <c r="I24">
-        <v>0.04914439993807462</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J24">
-        <v>0.04920500071185332</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N24">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O24">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P24">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q24">
-        <v>0.4878660340138889</v>
+        <v>1.540049443075</v>
       </c>
       <c r="R24">
-        <v>4.390794306125</v>
+        <v>13.860444987675</v>
       </c>
       <c r="S24">
-        <v>0.001028998262811729</v>
+        <v>0.00227489900865107</v>
       </c>
       <c r="T24">
-        <v>0.001067359503680272</v>
+        <v>0.00244393312758395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.179458333333333</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H25">
-        <v>3.538375</v>
+        <v>10.823695</v>
       </c>
       <c r="I25">
-        <v>0.04914439993807462</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J25">
-        <v>0.04920500071185332</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N25">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O25">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P25">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q25">
-        <v>2.429154000145834</v>
+        <v>15.501944923985</v>
       </c>
       <c r="R25">
-        <v>14.574924000875</v>
+        <v>93.01166954391</v>
       </c>
       <c r="S25">
-        <v>0.005123527919512974</v>
+        <v>0.02289884866899013</v>
       </c>
       <c r="T25">
-        <v>0.003543022643090023</v>
+        <v>0.01640021663463081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.179458333333333</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H26">
-        <v>3.538375</v>
+        <v>10.823695</v>
       </c>
       <c r="I26">
-        <v>0.04914439993807462</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J26">
-        <v>0.04920500071185332</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N26">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O26">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P26">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q26">
-        <v>0.3443593728333334</v>
+        <v>0.8722527168633335</v>
       </c>
       <c r="R26">
-        <v>3.0992343555</v>
+        <v>7.850274451770002</v>
       </c>
       <c r="S26">
-        <v>0.0007263165945640498</v>
+        <v>0.001288456581578053</v>
       </c>
       <c r="T26">
-        <v>0.0007533938082366533</v>
+        <v>0.001384194072439004</v>
       </c>
     </row>
   </sheetData>
